--- a/regions/11/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/11/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,20 +638,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73" style="1" customWidth="1"/>
     <col min="2" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="15">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
@@ -671,11 +674,11 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="24" customFormat="1" ht="15">
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="20">
         <v>2006</v>
@@ -722,8 +725,14 @@
       <c r="P3" s="23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="23">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -772,8 +781,14 @@
       <c r="P4" s="32">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="32">
+        <v>43.7</v>
+      </c>
+      <c r="R4" s="32">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
@@ -822,8 +837,14 @@
       <c r="P5" s="32">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="32">
+        <v>44.8</v>
+      </c>
+      <c r="R5" s="32">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
@@ -872,8 +893,14 @@
       <c r="P6" s="32">
         <v>686</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="32">
+        <v>1041</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
@@ -922,8 +949,14 @@
       <c r="P7" s="32">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="22.5" customHeight="1">
+      <c r="Q7" s="32">
+        <v>548</v>
+      </c>
+      <c r="R7" s="32">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
@@ -972,8 +1005,14 @@
       <c r="P8" s="32">
         <v>872.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="32">
+        <v>637.1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>979.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
@@ -1022,8 +1061,14 @@
       <c r="P9" s="32">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="32">
+        <v>23.7</v>
+      </c>
+      <c r="R9" s="32">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1117,14 @@
       <c r="P10" s="32">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="R10" s="32">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1173,14 @@
       <c r="P11" s="32">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="32">
+        <v>21.1</v>
+      </c>
+      <c r="R11" s="32">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1229,14 @@
       <c r="P12" s="32">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="32">
+        <v>7.3</v>
+      </c>
+      <c r="R12" s="32">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
@@ -1222,8 +1285,14 @@
       <c r="P13" s="32">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1">
+      <c r="Q13" s="32">
+        <v>22.5</v>
+      </c>
+      <c r="R13" s="32">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -1272,31 +1341,37 @@
       <c r="P14" s="32">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="32">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1">
+    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1311,7 +1386,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="19.5" thickBot="1">
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1326,37 +1401,37 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>

--- a/regions/11/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/11/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEEC0A-5F64-4F98-A654-D1ED871B9CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1530" windowWidth="21270" windowHeight="6270"/>
+    <workbookView xWindow="555" yWindow="2070" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,11 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,12 +247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -269,14 +264,11 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -285,13 +277,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -462,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,804 +662,840 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="73" style="1" customWidth="1"/>
     <col min="2" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="15">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="20">
+    <row r="3" spans="1:19" customFormat="1" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17">
         <v>2006</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>2007</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>2008</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>2009</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>2010</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>2011</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>2012</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>2013</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="19">
         <v>2014</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <v>2015</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="18">
         <v>2016</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="18">
         <v>2017</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="18">
         <v>2018</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="18">
         <v>2019</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="18">
         <v>2020</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="18">
         <v>2021</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="S3" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="23">
         <v>6.3618199999999998</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="23">
         <v>6.2534000000000001</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <v>1.07358</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="23">
         <v>0.82530000000000003</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="23">
         <v>3.25766</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="23">
         <v>2.6158700000000001</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>1.3</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="24">
         <v>6.4</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="25">
         <v>8.0458999999999996</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="25">
         <v>16.482500000000002</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="26">
         <v>13.7</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="23">
         <v>14.728429999999999</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="23">
         <v>23.055330000000001</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="27">
         <v>40.700000000000003</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="27">
         <v>34.9</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="27">
         <v>43.7</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="27">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="S4" s="36">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="23">
         <v>6.3512000000000004</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="23">
         <v>6.3311099999999998</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="23">
         <v>1.07358</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="23">
         <v>0.82530000000000003</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="23">
         <v>3.25766</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="23">
         <v>2.5221399999999998</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="28">
         <v>1.3</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="28">
         <v>6.2</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="26">
         <v>8.1</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="26">
         <v>16.5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="26">
         <v>13.8</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="23">
         <v>14.728440000000001</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="23">
         <v>23.055330000000001</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="27">
         <v>40.5</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="27">
         <v>33.799999999999997</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="27">
         <v>44.8</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="27">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="S5" s="27">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="29">
         <v>307</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="29">
         <v>291.66667999999999</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>73.666650000000004</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="29">
         <v>75</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="29">
         <v>202.2</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="29">
         <v>95.689499999999995</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="24">
         <v>83</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="24">
         <v>174</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="26">
         <v>170</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="26">
         <v>215</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="26">
         <v>313</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="29">
         <v>343.57614999999998</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="29">
         <v>461.28480999999999</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="27">
         <v>679</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="27">
         <v>686</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="27">
         <v>1041</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="27">
         <v>1090</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="S6" s="27">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="29">
         <v>259</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <v>275.33334000000002</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>41</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="29">
         <v>47</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <v>186</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>85.685749999999999</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="24">
         <v>75</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="24">
         <v>167</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="26">
         <v>155</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="26">
         <v>53</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="26">
         <v>201</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="29">
         <v>215.95778999999999</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="29">
         <v>351.58742999999998</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="27">
         <v>350</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="27">
         <v>356</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="27">
         <v>548</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="27">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="S7" s="27">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="23">
         <v>449.39510899999999</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="23">
         <v>347.52642400000002</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="23">
         <v>862.33942999999999</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="23">
         <v>426.28368699999999</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="23">
         <v>473.72535800000003</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="23">
         <v>665.05097899999998</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="24">
         <v>553.79999999999995</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="24">
         <v>344.9</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="25">
         <v>534.20000000000005</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="25">
         <v>521.9</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="25">
         <v>716</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="23">
         <v>734.03709800000001</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="23">
         <v>910.05848100000003</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="27">
         <v>840.6</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="27">
         <v>872.1</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="27">
         <v>637.1</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="27">
         <v>979.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="S8" s="27">
+        <v>964.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="23">
         <v>3.80708</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="23">
         <v>3.28816</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="23">
         <v>0.47365000000000002</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <v>0.44502000000000003</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <v>1.75275</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="23">
         <v>1.40493</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="24">
         <v>0.5</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="24">
         <v>4.7</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="25">
         <v>5.2252999999999998</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="25">
         <v>6.5028999999999995</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="26">
         <v>5.6</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <v>6.1514199999999999</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="23">
         <v>9.8585100000000008</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="27">
         <v>24.4</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="27">
         <v>18.5</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="27">
         <v>23.7</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="27">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="S9" s="27">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="23">
         <v>1.68868</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="23">
         <v>1.38924</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <v>0.42426999999999998</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <v>0.24043</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <v>1.05735</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="23">
         <v>0.68381999999999998</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="24">
         <v>0.5</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="24">
         <v>0.7</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="25">
         <v>0.99579999999999991</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="25">
         <v>0.33119999999999999</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="26">
         <v>1.7</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="23">
         <v>1.90225</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="23">
         <v>3.8395899999999998</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="27">
         <v>3.6</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="27">
         <v>3.8</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="27">
         <v>4.2</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="S10" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="23">
         <v>2.5440999999999998</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <v>3.0429400000000002</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>0.59991000000000005</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="23">
         <v>0.38028000000000001</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <v>1.50491</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="23">
         <v>1.1172299999999999</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="24">
         <v>0.8</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="24">
         <v>1.5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="25">
         <v>2.8854000000000002</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="25">
         <v>9.9797000000000011</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="23">
         <v>8.5770300000000006</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="23">
         <v>13.19688</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="27">
         <v>15.2</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="27">
         <v>21.1</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="27">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="S11" s="27">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="23">
         <v>0.57586999999999999</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="23">
         <v>1.1268800000000001</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>8.9870000000000005E-2</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="23">
         <v>2.7650000000000001E-2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <v>2.853E-2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="23">
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="24">
         <v>0.1</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="24">
         <v>0.2</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="25">
         <v>0.1231</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="25">
         <v>2.2725</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="26">
         <v>1.3</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="23">
         <v>6.3752300000000002</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="23">
         <v>2.6812</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="27">
         <v>5.8</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="27">
         <v>7.3</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="27">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="S12" s="27">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <v>3.2146400000000002</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>0.46975</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="23">
         <v>0.43063000000000001</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <v>1.7376400000000001</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="23">
         <v>1.49516</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="24">
         <v>0.5</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="24">
         <v>4.5</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="28">
         <v>5.0796999999999999</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="28">
         <v>6.4446000000000003</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="24">
         <v>5.4</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="23">
         <v>5.9785899999999996</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="23">
         <v>6.9940499999999997</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="27">
         <v>24.6</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="27">
         <v>17.3</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="27">
         <v>22.5</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="27">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="S13" s="27">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="31">
         <v>0</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="31">
         <v>0</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="31">
         <v>0</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="31">
         <v>0</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="31">
         <v>9.6759999999999999E-2</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="32">
         <v>0.3</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="33">
         <v>4.65E-2</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="31">
         <v>0</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="30">
         <v>0.2</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="27">
         <v>0.2</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="27">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="S14" s="27">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="15"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:19" s="3" customFormat="1">
+      <c r="A16" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:14" s="3" customFormat="1">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickBot="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
